--- a/root_node/exact/datos_verificacion_relu_1como2.xlsx
+++ b/root_node/exact/datos_verificacion_relu_1como2.xlsx
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>0.8592479228973389</v>
+        <v>0.02791166305541992</v>
       </c>
       <c r="F1" t="n">
         <v>1</v>
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="K1" t="n">
-        <v>0.8291976451873779</v>
+        <v>0.02649807929992676</v>
       </c>
       <c r="L1" t="n">
         <v>1</v>
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="Q1" t="n">
-        <v>0.8753249645233154</v>
+        <v>0.02617645263671875</v>
       </c>
       <c r="R1" t="n">
         <v>1</v>
@@ -520,13 +520,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.08299708366394</v>
+        <v>0.1121172904968262</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>53.92464951580823</v>
+        <v>53.92460882935245</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -544,13 +544,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.9584774971008301</v>
+        <v>0.1131470203399658</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>53.92464951580779</v>
+        <v>53.92460882935242</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -568,13 +568,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.9047980308532715</v>
+        <v>0.1121594905853271</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>53.92464951580822</v>
+        <v>53.92460882935247</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.7875933647155762</v>
+        <v>0.08636713027954102</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>5.050630354953847</v>
+        <v>5.05061116441699</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.7596995830535889</v>
+        <v>0.08613443374633789</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>5.050630354953847</v>
+        <v>5.05061116441699</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -651,13 +651,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.7841043472290039</v>
+        <v>0.08574604988098145</v>
       </c>
       <c r="R3" t="n">
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>5.050630354953847</v>
+        <v>5.05061116441699</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.7363557815551758</v>
+        <v>0.2078337669372559</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>84.94221186375304</v>
+        <v>66.96799211990519</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -710,13 +710,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.8050637245178223</v>
+        <v>0.2071542739868164</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>84.94221186375304</v>
+        <v>66.96799211990518</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>0.8945283889770508</v>
+        <v>0.200221061706543</v>
       </c>
       <c r="R4" t="n">
         <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>84.94221268966209</v>
+        <v>66.96799211990518</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1409800052642822</v>
+        <v>0.03949213027954102</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.1407976150512695</v>
+        <v>0.03940272331237793</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>0.1405737400054932</v>
+        <v>0.03947734832763672</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.09376335144043</v>
+        <v>0.08266949653625488</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>10.42206003325677</v>
+        <v>10.37212937430553</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.8896026611328125</v>
+        <v>0.08259963989257812</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>10.42206003325676</v>
+        <v>10.37212937430555</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -900,13 +900,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>1.044080018997192</v>
+        <v>0.08211851119995117</v>
       </c>
       <c r="R6" t="n">
         <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>10.42206003325676</v>
+        <v>10.37212937430555</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -935,13 +935,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.9183816909790039</v>
+        <v>0.1084737777709961</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>70.67503860477389</v>
+        <v>7.370019733695365</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.9323928356170654</v>
+        <v>0.1081504821777344</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>70.67503860477193</v>
+        <v>7.370019733695365</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>0.9053356647491455</v>
+        <v>0.1053652763366699</v>
       </c>
       <c r="R7" t="n">
         <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>70.67503860477447</v>
+        <v>7.370019733695387</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.312577247619629</v>
+        <v>0.3635497093200684</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>223.2802632289647</v>
+        <v>119.0933262538215</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>4.308261156082153</v>
+        <v>0.3593037128448486</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>223.2802632289646</v>
+        <v>119.0933262538215</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -1066,13 +1066,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>4.022313356399536</v>
+        <v>0.3690416812896729</v>
       </c>
       <c r="R8" t="n">
         <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>223.2802632289646</v>
+        <v>119.0933262538215</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.055030345916748</v>
+        <v>0.1125674247741699</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>30.35455344494844</v>
+        <v>30.35454064659862</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1125,13 +1125,13 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1.205335140228271</v>
+        <v>0.1133677959442139</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>30.35455344494833</v>
+        <v>30.35454064659882</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.9835638999938965</v>
+        <v>0.1061770915985107</v>
       </c>
       <c r="R9" t="n">
         <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>29.96536000309345</v>
+        <v>29.96534812136692</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1184,17 +1184,17 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4.406792402267456</v>
+        <v>0.2323784828186035</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>160.797904330783</v>
+        <v>64.01682084292911</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1208,17 +1208,17 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>4.884963750839233</v>
+        <v>0.2145135402679443</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>161.5002058387304</v>
+        <v>63.60116466025747</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1232,17 +1232,17 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>4.649718761444092</v>
+        <v>0.2269411087036133</v>
       </c>
       <c r="R10" t="n">
         <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>168.2157582017746</v>
+        <v>59.62657132537175</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4.552316427230835</v>
+        <v>0.2139639854431152</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>58.44840240606406</v>
+        <v>10.03526382561633</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>3.752424955368042</v>
+        <v>0.2131595611572266</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>15.94293674451397</v>
+        <v>10.03526382561648</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1315,13 +1315,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>3.69779634475708</v>
+        <v>0.2152214050292969</v>
       </c>
       <c r="R11" t="n">
         <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>58.44840240606413</v>
+        <v>10.03526382561635</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1350,17 +1350,17 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4.237624406814575</v>
+        <v>0.4995067119598389</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>181.2333073441774</v>
+        <v>81.30361073315132</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1374,17 +1374,17 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>5.738734483718872</v>
+        <v>0.4989712238311768</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>181.2333073441772</v>
+        <v>81.3036107331513</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1398,13 +1398,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>6.245886087417603</v>
+        <v>0.4601056575775146</v>
       </c>
       <c r="R12" t="n">
         <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>84.23016973964187</v>
+        <v>81.62724043010728</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>

--- a/root_node/exact/datos_verificacion_relu_1como2.xlsx
+++ b/root_node/exact/datos_verificacion_relu_1como2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,12 @@
           <t>optimal</t>
         </is>
       </c>
+      <c r="V1" t="inlineStr"/>
+      <c r="W1" t="inlineStr"/>
+      <c r="X1" t="inlineStr"/>
+      <c r="Y1" t="inlineStr"/>
+      <c r="Z1" t="inlineStr"/>
+      <c r="AA1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -586,6 +592,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -669,6 +681,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -752,6 +770,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -835,6 +859,12 @@
           <t>optimal</t>
         </is>
       </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -918,6 +948,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1001,6 +1037,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1084,6 +1126,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1167,6 +1215,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1250,6 +1304,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1333,6 +1393,12 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1412,6 +1478,1296 @@
         </is>
       </c>
       <c r="U12" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.02787995338439941</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0.02704930305480957</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.02629280090332031</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W13" t="n">
+        <v>0.02360248565673828</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1139302253723145</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>53.92460882935245</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1129500865936279</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>53.92460882935242</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.1134781837463379</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>53.92460882935247</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W14" t="n">
+        <v>0.06251144409179688</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>40.05239860530124</v>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.08750343322753906</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5.05061116441699</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0.08720803260803223</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5.05061116441699</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.08687257766723633</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5.05061116441699</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W15" t="n">
+        <v>0.06032109260559082</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2.887262200487617</v>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.2094435691833496</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>66.96799211990519</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2104966640472412</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>66.96799211990518</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.2031564712524414</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>66.96799211990518</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W16" t="n">
+        <v>0.1088449954986572</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>55.99164904366847</v>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.04006004333496094</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0.03996825218200684</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.04020428657531738</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W17" t="n">
+        <v>0.01799726486206055</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0833430290222168</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10.37212937430553</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0.08340907096862793</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>10.37212937430555</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.08300542831420898</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10.37212937430555</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W18" t="n">
+        <v>0.04221057891845703</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.0367253792104248</v>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.1094937324523926</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7.370019733695365</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0.1096000671386719</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>7.370019733695365</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.107928991317749</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>7.370019733695387</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W19" t="n">
+        <v>0.08407235145568848</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>4.037375967019032</v>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3671467304229736</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>119.0933262538215</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0.3666548728942871</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>119.0933262538215</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.3655803203582764</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>119.0933262538215</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W20" t="n">
+        <v>0.2159368991851807</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>221.5625345800298</v>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1142754554748535</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30.35454064659862</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1146132946014404</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>30.35454064659882</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.1072661876678467</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>29.96534812136692</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W21" t="n">
+        <v>0.07312750816345215</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2.792199008167889</v>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.2349917888641357</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>64.01682084292911</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0.2185211181640625</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>63.60116466025747</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.2312912940979004</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>59.62657132537175</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W22" t="n">
+        <v>0.1146793365478516</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>5.894164946086515</v>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.2161304950714111</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>10.03526382561633</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0.2188177108764648</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>10.03526382561648</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.2164497375488281</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10.03526382561635</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W23" t="n">
+        <v>0.1185941696166992</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.8578077012400104</v>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.5076887607574463</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>81.30361073315132</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0.5047609806060791</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>81.3036107331513</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.4640505313873291</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>81.62724043010728</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="W24" t="n">
+        <v>0.3206422328948975</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>58.51191067781855</v>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
         <is>
           <t>totalnodelimit</t>
         </is>

--- a/root_node/exact/datos_verificacion_relu_1como2.xlsx
+++ b/root_node/exact/datos_verificacion_relu_1como2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2773,6 +2773,642 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.02508783340454102</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.09500432014465332</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>53.60706389122476</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.07636499404907227</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.557228349648496</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1978809833526611</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>66.9679921199052</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0390620231628418</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.07974147796630859</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>10.37212937430555</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.137927770614624</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6.944224500928011</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.2992050647735596</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>120.3432356028251</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1111490726470947</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>21.80496264504515</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.2043886184692383</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>54.77514341778021</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.1834995746612549</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6.547012474756428</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>4</v>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.4681856632232666</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>80.36491872601583</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/root_node/exact/datos_verificacion_relu_1como2.xlsx
+++ b/root_node/exact/datos_verificacion_relu_1como2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA36"/>
+  <dimension ref="A1:AB48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,7 @@
       <c r="Y1" t="inlineStr"/>
       <c r="Z1" t="inlineStr"/>
       <c r="AA1" t="inlineStr"/>
+      <c r="AB1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -598,6 +599,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -687,6 +689,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -776,6 +779,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -865,6 +869,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -954,6 +959,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1043,6 +1049,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1132,6 +1139,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1221,6 +1229,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1310,6 +1319,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1399,6 +1409,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1488,6 +1499,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1595,6 +1607,7 @@
           <t>optimal</t>
         </is>
       </c>
+      <c r="AB13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1702,6 +1715,7 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="AB14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1809,6 +1823,7 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="AB15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1916,6 +1931,7 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="AB16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2023,6 +2039,7 @@
           <t>optimal</t>
         </is>
       </c>
+      <c r="AB17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2130,6 +2147,7 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="AB18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2237,6 +2255,7 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="AB19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2344,6 +2363,7 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="AB20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2451,6 +2471,7 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="AB21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2558,6 +2579,7 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="AB22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2665,6 +2687,7 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="AB23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2772,6 +2795,7 @@
           <t>totalnodelimit</t>
         </is>
       </c>
+      <c r="AB24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2825,6 +2849,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2878,6 +2903,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2931,6 +2957,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2984,6 +3011,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3037,6 +3065,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3090,6 +3119,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3143,6 +3173,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3196,6 +3227,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3249,6 +3281,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3302,6 +3335,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3355,6 +3389,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3408,6 +3443,1399 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.02819347381591797</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>0.02706360816955566</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>0.02658987045288086</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>0.02662563323974609</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.02366971969604492</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.1132428646087646</v>
+      </c>
+      <c r="F38" t="n">
+        <v>53.92460882935245</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>0.1142196655273438</v>
+      </c>
+      <c r="K38" t="n">
+        <v>53.92460882935242</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>0.1137323379516602</v>
+      </c>
+      <c r="P38" t="n">
+        <v>53.92460882935247</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>0.07099723815917969</v>
+      </c>
+      <c r="U38" t="n">
+        <v>40.30796935487955</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.09511542320251465</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>53.60706389122476</v>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" t="n">
+        <v>10</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.08770036697387695</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5.05061116441699</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>0.08803248405456543</v>
+      </c>
+      <c r="K39" t="n">
+        <v>5.05061116441699</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>0.08681106567382812</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5.05061116441699</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>0.05846571922302246</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.950580493976779</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.07680177688598633</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>3.557228349648496</v>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" t="n">
+        <v>10</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0.2099099159240723</v>
+      </c>
+      <c r="F40" t="n">
+        <v>66.96799211990519</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>0.2102231979370117</v>
+      </c>
+      <c r="K40" t="n">
+        <v>66.96799211990518</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>0.2045950889587402</v>
+      </c>
+      <c r="P40" t="n">
+        <v>66.96799211990518</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>0.1249146461486816</v>
+      </c>
+      <c r="U40" t="n">
+        <v>55.98594280835098</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.2003953456878662</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>66.9679921199052</v>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.03998112678527832</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>0.04030656814575195</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>0.0400395393371582</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>0.01864337921142578</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.03927731513977051</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0.08407068252563477</v>
+      </c>
+      <c r="F42" t="n">
+        <v>10.37212937430553</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>0.08352303504943848</v>
+      </c>
+      <c r="K42" t="n">
+        <v>10.37212937430555</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>0.08332109451293945</v>
+      </c>
+      <c r="P42" t="n">
+        <v>10.37212937430555</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>0.04488801956176758</v>
+      </c>
+      <c r="U42" t="n">
+        <v>4.899793200896453</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.08117032051086426</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>10.37212937430555</v>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="n">
+        <v>10</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0.1104376316070557</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7.370019733695365</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>0.1098523139953613</v>
+      </c>
+      <c r="K43" t="n">
+        <v>7.370019733695365</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>0.1068675518035889</v>
+      </c>
+      <c r="P43" t="n">
+        <v>7.370019733695387</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>0.09034490585327148</v>
+      </c>
+      <c r="U43" t="n">
+        <v>4.272339768347814</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.1375353336334229</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>6.944224500928011</v>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="n">
+        <v>10</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0.365354061126709</v>
+      </c>
+      <c r="F44" t="n">
+        <v>119.0933262538215</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>0.3659837245941162</v>
+      </c>
+      <c r="K44" t="n">
+        <v>119.0933262538215</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>0.366379976272583</v>
+      </c>
+      <c r="P44" t="n">
+        <v>119.0933262538215</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>0.192185640335083</v>
+      </c>
+      <c r="U44" t="n">
+        <v>158.2460513503617</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.2999324798583984</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>120.3432356028251</v>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>4</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0.1149580478668213</v>
+      </c>
+      <c r="F45" t="n">
+        <v>30.35454064659862</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>0.1148014068603516</v>
+      </c>
+      <c r="K45" t="n">
+        <v>30.35454064659882</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>0.1081557273864746</v>
+      </c>
+      <c r="P45" t="n">
+        <v>29.96534812136692</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>0.07103061676025391</v>
+      </c>
+      <c r="U45" t="n">
+        <v>4.814738570515458</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.1111783981323242</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>21.80496264504515</v>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>4</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0.2371904850006104</v>
+      </c>
+      <c r="F46" t="n">
+        <v>64.01682084292911</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>0.2167322635650635</v>
+      </c>
+      <c r="K46" t="n">
+        <v>63.60116466025747</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
+        <v>0.2297961711883545</v>
+      </c>
+      <c r="P46" t="n">
+        <v>59.62657132537175</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>0.1155951023101807</v>
+      </c>
+      <c r="U46" t="n">
+        <v>6.336903518578162</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.2040956020355225</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>54.77514341778021</v>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4</v>
+      </c>
+      <c r="B47" t="n">
+        <v>10</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0.2175266742706299</v>
+      </c>
+      <c r="F47" t="n">
+        <v>10.03526382561633</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>0.2161316871643066</v>
+      </c>
+      <c r="K47" t="n">
+        <v>10.03526382561648</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
+        <v>0.2165257930755615</v>
+      </c>
+      <c r="P47" t="n">
+        <v>10.03526382561635</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>0.1184885501861572</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.02459191890314</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.1848239898681641</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>6.547012474756428</v>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>4</v>
+      </c>
+      <c r="B48" t="n">
+        <v>10</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0.504791259765625</v>
+      </c>
+      <c r="F48" t="n">
+        <v>81.30361073315132</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>prop</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5064961910247803</v>
+      </c>
+      <c r="K48" t="n">
+        <v>81.3036107331513</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>mix</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
+        <v>0.4688971042633057</v>
+      </c>
+      <c r="P48" t="n">
+        <v>81.62724043010728</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>verif_bounds</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>0.3221237659454346</v>
+      </c>
+      <c r="U48" t="n">
+        <v>62.33629542613712</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>verif_bounds_prop</t>
+        </is>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.4661140441894531</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>80.36491872601583</v>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>totalnodelimit</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
